--- a/artfynd/A 52620-2022.xlsx
+++ b/artfynd/A 52620-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112392645</v>
       </c>
       <c r="B2" t="n">
-        <v>89692</v>
+        <v>89706</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>112393148</v>
       </c>
       <c r="B3" t="n">
-        <v>90843</v>
+        <v>90857</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112393151</v>
+        <v>112393218</v>
       </c>
       <c r="B4" t="n">
-        <v>88623</v>
+        <v>89517</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>509729</v>
+        <v>509697</v>
       </c>
       <c r="R4" t="n">
-        <v>6814194</v>
+        <v>6814179</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112393218</v>
+        <v>112393151</v>
       </c>
       <c r="B5" t="n">
-        <v>89503</v>
+        <v>88637</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>1962</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>509697</v>
+        <v>509729</v>
       </c>
       <c r="R5" t="n">
-        <v>6814179</v>
+        <v>6814194</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112343568</v>
+        <v>112344694</v>
       </c>
       <c r="B6" t="n">
-        <v>90846</v>
+        <v>90795</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,35 +1148,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>232140</v>
+        <v>6055</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Snottabo (Snottabo), Dlr</t>
+          <t>Kanaltjärnen (Kanaltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>510660</v>
+        <v>510393</v>
       </c>
       <c r="R6" t="n">
-        <v>6813980</v>
+        <v>6813663</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112344694</v>
+        <v>112343580</v>
       </c>
       <c r="B7" t="n">
-        <v>90781</v>
+        <v>89706</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,35 +1261,35 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6055</v>
+        <v>1503</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kanaltjärnen (Kanaltjärnen), Dlr</t>
+          <t>Snottabo (Snottabo), Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>510393</v>
+        <v>510660</v>
       </c>
       <c r="R7" t="n">
-        <v>6813663</v>
+        <v>6813980</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112343580</v>
+        <v>112343568</v>
       </c>
       <c r="B8" t="n">
-        <v>89692</v>
+        <v>90860</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1503</v>
+        <v>232140</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112343573</v>
+        <v>112343724</v>
       </c>
       <c r="B9" t="n">
-        <v>90781</v>
+        <v>89820</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6055</v>
+        <v>71</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>510660</v>
+        <v>510716</v>
       </c>
       <c r="R9" t="n">
-        <v>6813980</v>
+        <v>6814045</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112343724</v>
+        <v>112343573</v>
       </c>
       <c r="B10" t="n">
-        <v>89806</v>
+        <v>90795</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>6055</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>510716</v>
+        <v>510660</v>
       </c>
       <c r="R10" t="n">
-        <v>6814045</v>
+        <v>6813980</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,7 +1700,7 @@
         <v>112344707</v>
       </c>
       <c r="B11" t="n">
-        <v>90781</v>
+        <v>90795</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>

--- a/artfynd/A 52620-2022.xlsx
+++ b/artfynd/A 52620-2022.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112393148</v>
+        <v>112393151</v>
       </c>
       <c r="B3" t="n">
-        <v>90857</v>
+        <v>88637</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5448</v>
+        <v>1962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112393151</v>
+        <v>112393148</v>
       </c>
       <c r="B5" t="n">
-        <v>88637</v>
+        <v>90857</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1962</v>
+        <v>5448</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112343580</v>
+        <v>112343568</v>
       </c>
       <c r="B7" t="n">
-        <v>89706</v>
+        <v>90860</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1503</v>
+        <v>232140</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112343568</v>
+        <v>112343580</v>
       </c>
       <c r="B8" t="n">
-        <v>90860</v>
+        <v>89706</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>232140</v>
+        <v>1503</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112343724</v>
+        <v>112343573</v>
       </c>
       <c r="B9" t="n">
-        <v>89820</v>
+        <v>90795</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>6055</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>510716</v>
+        <v>510660</v>
       </c>
       <c r="R9" t="n">
-        <v>6814045</v>
+        <v>6813980</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112343573</v>
+        <v>112343724</v>
       </c>
       <c r="B10" t="n">
-        <v>90795</v>
+        <v>89820</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6055</v>
+        <v>71</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>510660</v>
+        <v>510716</v>
       </c>
       <c r="R10" t="n">
-        <v>6813980</v>
+        <v>6814045</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD10" t="b">
